--- a/doc/timelog/b.xlsx
+++ b/doc/timelog/b.xlsx
@@ -1,21 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>created github project, setup repository structure, created LeapVisualizer, researched bone animation</t>
+  </si>
+  <si>
+    <t>tweaked LeapVisualizer</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="168" formatCode="hh:mm;@"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,7 +62,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +70,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +148,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +183,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +391,318 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="98.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>41739</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.1875</v>
+      </c>
+      <c r="D2" s="3">
+        <f>C2-B2</f>
+        <v>0.1875</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>41739</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D30" si="0">C3-B3</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/timelog/b.xlsx
+++ b/doc/timelog/b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>date</t>
   </si>
@@ -36,14 +36,17 @@
   <si>
     <t>tweaked LeapVisualizer</t>
   </si>
+  <si>
+    <t>proposal title and linked two videos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="168" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -86,8 +89,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,7 +398,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,12 +462,21 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2">
+        <v>41742</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">

--- a/doc/timelog/b.xlsx
+++ b/doc/timelog/b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1455" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t>proposal title and linked two videos</t>
+  </si>
+  <si>
+    <t>building bullet and bulletsharp</t>
+  </si>
+  <si>
+    <t>building bullet and bulletsharp and setting up BowlPhysics demo projet</t>
+  </si>
+  <si>
+    <t>started implementing BowlPhysics demo</t>
   </si>
 </sst>
 </file>
@@ -397,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,30 +489,57 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2">
+        <v>41770</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="2">
+        <v>41770</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.5</v>
+      </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="2">
+        <v>41770</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.6875</v>
+      </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">

--- a/doc/timelog/b.xlsx
+++ b/doc/timelog/b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1455" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>date</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>started implementing BowlPhysics demo</t>
+  </si>
+  <si>
+    <t>finished BowlPhysics implementation</t>
+  </si>
+  <si>
+    <t>created Device, Device.Leap and HandReconstructer projects with some code</t>
+  </si>
+  <si>
+    <t>implemented simple inverse kinematics/reconstruction routine</t>
   </si>
 </sst>
 </file>
@@ -404,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,30 +552,57 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="2">
+        <v>41780</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.375E-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="2">
+        <v>41780</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="2">
+        <v>41781</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -749,6 +785,12 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="3">
+        <f>SUM(D2:D30)</f>
+        <v>0.86458333333333348</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/doc/timelog/b.xlsx
+++ b/doc/timelog/b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="2355" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>implemented simple inverse kinematics/reconstruction routine</t>
+  </si>
+  <si>
+    <t>upgraded to Leap SDK 2.0, read docs about new skeletal tracking, started with new domain model</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,12 +609,21 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="2">
+        <v>41785</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -788,7 +800,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D31" s="3">
         <f>SUM(D2:D30)</f>
-        <v>0.86458333333333348</v>
+        <v>0.88541666666666674</v>
       </c>
     </row>
   </sheetData>

--- a/doc/timelog/b.xlsx
+++ b/doc/timelog/b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2355" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="2805" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>date</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>upgraded to Leap SDK 2.0, read docs about new skeletal tracking, started with new domain model</t>
+  </si>
+  <si>
+    <t>physics scene refactoring, rubics cube scene</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,12 +630,21 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="2">
+        <v>41790</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -800,7 +812,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D31" s="3">
         <f>SUM(D2:D30)</f>
-        <v>0.88541666666666674</v>
+        <v>0.96875000000000011</v>
       </c>
     </row>
   </sheetData>

--- a/doc/timelog/b.xlsx
+++ b/doc/timelog/b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2805" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="3255" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>date</t>
   </si>
@@ -62,15 +62,25 @@
   </si>
   <si>
     <t>physics scene refactoring, rubics cube scene</t>
+  </si>
+  <si>
+    <t>leap integration into BowlPhysics prototype</t>
+  </si>
+  <si>
+    <t>rubics cube constraints</t>
+  </si>
+  <si>
+    <t>2014-06_01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="167" formatCode="[h]:mm"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -110,11 +120,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,7 +433,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,30 +659,57 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="2">
+        <v>41790</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.875</v>
+      </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="2">
+        <v>41790</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.1875</v>
+      </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -810,9 +848,9 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D31" s="3">
+      <c r="D31" s="4">
         <f>SUM(D2:D30)</f>
-        <v>0.96875000000000011</v>
+        <v>1.1770833333333333</v>
       </c>
     </row>
   </sheetData>

--- a/doc/timelog/b.xlsx
+++ b/doc/timelog/b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3255" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="3705" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>rubics cube constraints</t>
   </si>
   <si>
-    <t>2014-06_01</t>
+    <t>hand reconstruction</t>
   </si>
 </sst>
 </file>
@@ -80,7 +80,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm;@"/>
-    <numFmt numFmtId="167" formatCode="[h]:mm"/>
+    <numFmt numFmtId="166" formatCode="[h]:mm"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -125,7 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +433,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,8 +695,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
+      <c r="A15" s="2">
+        <v>41791</v>
       </c>
       <c r="B15" s="3">
         <v>0.10416666666666667</v>
@@ -713,12 +713,21 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="2">
+        <v>41793</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.27083333333333331</v>
+      </c>
       <c r="D16" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -850,7 +859,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D31" s="4">
         <f>SUM(D2:D30)</f>
-        <v>1.1770833333333333</v>
+        <v>1.40625</v>
       </c>
     </row>
   </sheetData>

--- a/doc/timelog/b.xlsx
+++ b/doc/timelog/b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3705" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="4155" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>hand reconstruction</t>
+  </si>
+  <si>
+    <t>Tweaking BowlPhysics scene</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,16 +733,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>41793</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="D17" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -748,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -757,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -766,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -775,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -784,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -793,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -802,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -811,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -820,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -829,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -838,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -847,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -856,10 +868,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" s="4">
         <f>SUM(D2:D30)</f>
-        <v>1.40625</v>
+        <v>1.4270833333333335</v>
       </c>
     </row>
   </sheetData>

--- a/doc/timelog/b.xlsx
+++ b/doc/timelog/b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4155" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="4605" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>date</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Tweaking BowlPhysics scene</t>
+  </si>
+  <si>
+    <t>Building and configuring x86 and x64 targets</t>
   </si>
 </sst>
 </file>
@@ -435,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,48 +755,81 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="2">
+        <v>41793</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
       <c r="D18" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="2">
+        <v>41794</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="D19" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="2">
+        <v>41794</v>
+      </c>
+      <c r="B20" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.13541666666666666</v>
+      </c>
       <c r="D20" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.2083333333333329E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="2">
+        <v>41795</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D21" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="2">
+        <v>41801</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D22" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -871,7 +907,7 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" s="4">
         <f>SUM(D2:D30)</f>
-        <v>1.4270833333333335</v>
+        <v>1.6875</v>
       </c>
     </row>
   </sheetData>

--- a/doc/timelog/b.xlsx
+++ b/doc/timelog/b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4605" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="5055" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>date</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Building and configuring x86 and x64 targets</t>
+  </si>
+  <si>
+    <t>CollisionShapeConverter, renderables, tweaking</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,12 +836,21 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="2">
+        <v>41814</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.28125</v>
+      </c>
       <c r="D23" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.17708333333333331</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -907,7 +919,7 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" s="4">
         <f>SUM(D2:D30)</f>
-        <v>1.6875</v>
+        <v>1.8645833333333333</v>
       </c>
     </row>
   </sheetData>

--- a/doc/timelog/b.xlsx
+++ b/doc/timelog/b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="5055" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="5505" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>date</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>CollisionShapeConverter, renderables, tweaking</t>
+  </si>
+  <si>
+    <t>started documentation and presentation</t>
+  </si>
+  <si>
+    <t>tweaking scenes and user experience</t>
   </si>
 </sst>
 </file>
@@ -854,21 +860,39 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="2">
+        <v>41815</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>6.25E-2</v>
+      </c>
       <c r="D24" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="2">
+        <v>41815</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.27083333333333331</v>
+      </c>
       <c r="D25" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14583333333333331</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -919,7 +943,7 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" s="4">
         <f>SUM(D2:D30)</f>
-        <v>1.8645833333333333</v>
+        <v>2.0729166666666665</v>
       </c>
     </row>
   </sheetData>

--- a/doc/timelog/b.xlsx
+++ b/doc/timelog/b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="5505" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="5955" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>date</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>tweaking scenes and user experience</t>
+  </si>
+  <si>
+    <t>documentation</t>
+  </si>
+  <si>
+    <t>documentation, presentation</t>
   </si>
 </sst>
 </file>
@@ -445,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,55 +902,61 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="2">
+        <v>41815</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.75</v>
+      </c>
       <c r="D26" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="2">
+        <v>41815</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D27" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D28" s="4">
+        <f>SUM(D2:D27)</f>
+        <v>2.34375</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="4">
-        <f>SUM(D2:D30)</f>
-        <v>2.0729166666666665</v>
-      </c>
+      <c r="D30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
